--- a/Firmware/Documentation/PIC32_OSC_CONFIG_v1.1.xlsx
+++ b/Firmware/Documentation/PIC32_OSC_CONFIG_v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocal\Desktop\Electronics\Firmware\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocal\Desktop\schiad\Electronics\Firmware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27118,7 +27118,7 @@
   <dimension ref="B2:AB312"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27220,7 +27220,7 @@
         <v>34</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>408</v>
@@ -27232,13 +27232,13 @@
         <v>36</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="4:23" x14ac:dyDescent="0.2">
       <c r="U19" s="8">
         <f>P20/J123</f>
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>31</v>
@@ -27251,11 +27251,11 @@
       </c>
       <c r="M20" s="6">
         <f>J20/J102</f>
-        <v>0.66666666666666663</v>
+        <v>4</v>
       </c>
       <c r="P20" s="8">
         <f>M20*J113</f>
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="4:23" x14ac:dyDescent="0.2">
@@ -27263,7 +27263,7 @@
         <v>392</v>
       </c>
       <c r="E22" s="15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>31</v>
@@ -27441,7 +27441,7 @@
       <c r="E40" s="4"/>
       <c r="M40" s="5">
         <f>U19</f>
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>31</v>
@@ -27523,7 +27523,7 @@
       </c>
       <c r="S46" s="45">
         <f>$R$49/J158</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T46" s="5" t="s">
         <v>31</v>
@@ -27548,7 +27548,7 @@
       <c r="E49" s="4"/>
       <c r="R49" s="5">
         <f>K133</f>
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="S49" s="5" t="s">
         <v>31</v>
@@ -27621,7 +27621,7 @@
       </c>
       <c r="M61" s="5">
         <f>$P$20</f>
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="N61" s="5" t="s">
         <v>31</v>
@@ -27736,7 +27736,7 @@
       </c>
       <c r="H69" s="5" t="str">
         <f>L17</f>
-        <v>DIV_12</v>
+        <v>DIV_2</v>
       </c>
       <c r="M69" s="45">
         <f>$G$46</f>
@@ -27766,11 +27766,11 @@
       </c>
       <c r="H71" s="5" t="str">
         <f>R17</f>
-        <v>DIV_2</v>
+        <v>DIV_1</v>
       </c>
       <c r="M71" s="5">
         <f>$S$46</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N71" s="5" t="s">
         <v>31</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="M73" s="5">
         <f>$R$49</f>
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>31</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="J95" s="6">
         <f>IF($L$17="DIV_2", 2, 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95" s="6"/>
       <c r="L95" s="22"/>
@@ -28191,7 +28191,7 @@
       </c>
       <c r="J101" s="6">
         <f>IF($L$17="DIV_12", 12, 0)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K101" s="6"/>
       <c r="L101" s="22"/>
@@ -28210,7 +28210,7 @@
       <c r="I102" s="6"/>
       <c r="J102" s="6">
         <f>SUM(J94:J101)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K102" s="6"/>
       <c r="L102" s="22"/>
@@ -28478,7 +28478,7 @@
       </c>
       <c r="J115" s="6">
         <f>IF($R$17="DIV_1", 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" s="6"/>
       <c r="L115" s="22"/>
@@ -28508,7 +28508,7 @@
       </c>
       <c r="J116" s="6">
         <f>IF($R$17="DIV_2", 2, 0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K116" s="6"/>
       <c r="L116" s="22"/>
@@ -28746,7 +28746,7 @@
       <c r="I123" s="6"/>
       <c r="J123" s="6">
         <f>SUM(J115:J122)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L123" s="22"/>
       <c r="N123" s="21">
@@ -28839,11 +28839,11 @@
       </c>
       <c r="J126" s="6">
         <f>$U$19</f>
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="K126" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="L126" s="22"/>
       <c r="N126" s="21"/>
@@ -28905,7 +28905,7 @@
       </c>
       <c r="J128" s="6">
         <f>$U$19</f>
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="K128" s="6">
         <f t="shared" si="1"/>
@@ -29066,7 +29066,7 @@
       <c r="J133" s="6"/>
       <c r="K133" s="6">
         <f>SUM(K125:K132)</f>
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="L133" s="22"/>
       <c r="N133" s="21"/>
@@ -30584,7 +30584,7 @@
       <c r="S191" s="6"/>
       <c r="T191" s="6">
         <f>$M$61</f>
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="U191" s="6">
         <f t="shared" ref="U191:U198" si="2">IF($O$79=O191, T191, 0)</f>
@@ -30739,7 +30739,7 @@
       <c r="S196" s="6"/>
       <c r="T196" s="6">
         <f>$M$71</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U196" s="6">
         <f t="shared" si="2"/>
@@ -30770,7 +30770,7 @@
       <c r="S197" s="6"/>
       <c r="T197" s="6">
         <f>$M$73</f>
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="U197" s="6">
         <f t="shared" si="2"/>
@@ -31666,7 +31666,7 @@
       </c>
       <c r="F237" s="5">
         <f>IF($M$20&lt;4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G237" s="6"/>
       <c r="H237" s="6" t="s">
@@ -31726,7 +31726,7 @@
       </c>
       <c r="F240" s="5" t="b">
         <f>IF(F239=0,0,OR(F238,F237))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G240" s="6"/>
       <c r="H240" s="6" t="s">
